--- a/05出赛/出赛名单.xlsx
+++ b/05出赛/出赛名单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13050"/>
+    <workbookView windowWidth="21540" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="队伍详细信息" sheetId="2" r:id="rId1"/>
@@ -55,7 +55,7 @@
     <t>电磁组</t>
   </si>
   <si>
-    <t>咸鱼纵横</t>
+    <t>下岗再就业</t>
   </si>
   <si>
     <t>成志远</t>
@@ -356,10 +356,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -377,9 +393,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -393,14 +425,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -409,9 +433,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -425,54 +448,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -486,12 +463,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -508,187 +508,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -809,6 +809,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -820,15 +838,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -859,11 +868,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -882,165 +897,150 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1653,7 +1653,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="O14" sqref="O14"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3:C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>

--- a/05出赛/出赛名单.xlsx
+++ b/05出赛/出赛名单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21540" windowHeight="12465"/>
+    <workbookView windowWidth="28800" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="队伍详细信息" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="114">
   <si>
     <t>第十九届智能车队伍详细信息</t>
   </si>
@@ -37,6 +37,9 @@
     <t>班级</t>
   </si>
   <si>
+    <t>学号</t>
+  </si>
+  <si>
     <t>性别</t>
   </si>
   <si>
@@ -67,6 +70,9 @@
     <t>21级自动化2班</t>
   </si>
   <si>
+    <t>202106071302</t>
+  </si>
+  <si>
     <t>男</t>
   </si>
   <si>
@@ -82,6 +88,9 @@
     <t>21级自动化1班</t>
   </si>
   <si>
+    <t>202106071225</t>
+  </si>
+  <si>
     <t>女</t>
   </si>
   <si>
@@ -91,12 +100,15 @@
     <t>傅琦玮</t>
   </si>
   <si>
-    <t xml:space="preserve"> 电子信息</t>
+    <t>电子信息</t>
   </si>
   <si>
     <t>2022电子1班</t>
   </si>
   <si>
+    <t>202206070913</t>
+  </si>
+  <si>
     <t>1029867213@qq.com</t>
   </si>
   <si>
@@ -109,18 +121,21 @@
     <t>魏郡辰</t>
   </si>
   <si>
-    <t>电子信息</t>
-  </si>
-  <si>
     <t>2022电子2班</t>
   </si>
   <si>
+    <t>202206071028</t>
+  </si>
+  <si>
     <t>15522999550@163.com</t>
   </si>
   <si>
     <t>曾帅博</t>
   </si>
   <si>
+    <t>202206071003</t>
+  </si>
+  <si>
     <t>1976640167@qq.com</t>
   </si>
   <si>
@@ -133,12 +148,18 @@
     <t>2022数物信13班</t>
   </si>
   <si>
+    <t>202206071309</t>
+  </si>
+  <si>
     <t>2854908154@qq.com</t>
   </si>
   <si>
     <t>王雨蒙</t>
   </si>
   <si>
+    <t>202206071026</t>
+  </si>
+  <si>
     <t>huimou0927@qq.com</t>
   </si>
   <si>
@@ -154,18 +175,27 @@
     <t>2021自动化1班</t>
   </si>
   <si>
+    <t>202106071208</t>
+  </si>
+  <si>
     <t>1469444875@qq.com</t>
   </si>
   <si>
     <t>韩一铭</t>
   </si>
   <si>
+    <t>202106071206</t>
+  </si>
+  <si>
     <t>2763142268@qq.com</t>
   </si>
   <si>
     <t>池盛昌</t>
   </si>
   <si>
+    <t>202106071203</t>
+  </si>
+  <si>
     <t>2856427359@qq.com</t>
   </si>
   <si>
@@ -178,12 +208,18 @@
     <t>张志硕</t>
   </si>
   <si>
+    <t>202106071228</t>
+  </si>
+  <si>
     <t>861146418@qq.com</t>
   </si>
   <si>
     <t>殷浩玮</t>
   </si>
   <si>
+    <t>202106071224</t>
+  </si>
+  <si>
     <t>2904835056@qq.com</t>
   </si>
   <si>
@@ -193,6 +229,9 @@
     <t>2023级物电类5班</t>
   </si>
   <si>
+    <t>202323160515</t>
+  </si>
+  <si>
     <t>1281381039@qq.com</t>
   </si>
   <si>
@@ -205,18 +244,21 @@
     <t>张祖铭</t>
   </si>
   <si>
-    <t>电子</t>
-  </si>
-  <si>
     <t>23物电类4班</t>
   </si>
   <si>
+    <t>202323160439</t>
+  </si>
+  <si>
     <t>2215376397@qq.com</t>
   </si>
   <si>
     <t>龙海涛</t>
   </si>
   <si>
+    <t>202323160425</t>
+  </si>
+  <si>
     <t>1429823641@qq.com</t>
   </si>
   <si>
@@ -229,12 +271,18 @@
     <t>张艺鹏</t>
   </si>
   <si>
+    <t>202106071227</t>
+  </si>
+  <si>
     <t>2106777958@qq.com</t>
   </si>
   <si>
     <t>严超</t>
   </si>
   <si>
+    <t>202106071223</t>
+  </si>
+  <si>
     <t>3057543683@qq.com</t>
   </si>
   <si>
@@ -247,10 +295,10 @@
     <t>魏畅翔</t>
   </si>
   <si>
-    <t>电子信息科学与技术</t>
-  </si>
-  <si>
-    <t>物电3班</t>
+    <t>23物电3班</t>
+  </si>
+  <si>
+    <t>202323160329</t>
   </si>
   <si>
     <t>2521736216@qq.com</t>
@@ -259,12 +307,18 @@
     <t>陈仕鑫</t>
   </si>
   <si>
+    <t>202323160306</t>
+  </si>
+  <si>
     <t>3456843176@qq.com</t>
   </si>
   <si>
     <t>李桠泽</t>
   </si>
   <si>
+    <t>202323160315</t>
+  </si>
+  <si>
     <t>3282076363@qq.com</t>
   </si>
   <si>
@@ -280,16 +334,25 @@
     <t>22级电子2班</t>
   </si>
   <si>
+    <t>202206071013</t>
+  </si>
+  <si>
     <t>2226546640@qq.com</t>
   </si>
   <si>
     <t>李伟城</t>
   </si>
   <si>
+    <t>202206071015</t>
+  </si>
+  <si>
     <t>1846665380@qq.com</t>
   </si>
   <si>
     <t>黄昊翔</t>
+  </si>
+  <si>
+    <t>202206071009</t>
   </si>
   <si>
     <t>2498620795@qq.com</t>
@@ -301,8 +364,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -350,14 +413,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -365,7 +428,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -379,8 +442,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -403,31 +467,29 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -448,6 +510,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -455,9 +525,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -470,28 +555,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -508,25 +571,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -538,31 +703,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -574,121 +745,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -803,26 +866,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -842,28 +902,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -883,6 +926,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -897,161 +951,173 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1093,8 +1159,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1648,12 +1726,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3:C25"/>
+      <selection pane="bottomLeft" activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
@@ -1663,755 +1741,829 @@
     <col min="3" max="3" width="15.875" customWidth="1"/>
     <col min="5" max="5" width="9.875" customWidth="1"/>
     <col min="6" max="6" width="16.875" customWidth="1"/>
-    <col min="7" max="7" width="6.625" customWidth="1"/>
-    <col min="8" max="8" width="15.375" customWidth="1"/>
-    <col min="9" max="9" width="25.625" customWidth="1"/>
-    <col min="10" max="10" width="13.75" customWidth="1"/>
-    <col min="11" max="11" width="6.625" customWidth="1"/>
-    <col min="12" max="12" width="6.125" customWidth="1"/>
-    <col min="13" max="13" width="8.375" customWidth="1"/>
-    <col min="14" max="14" width="8.875" customWidth="1"/>
-    <col min="15" max="15" width="23.75" customWidth="1"/>
+    <col min="7" max="7" width="16.875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="6.625" customWidth="1"/>
+    <col min="9" max="9" width="15.375" customWidth="1"/>
+    <col min="10" max="10" width="25.625" customWidth="1"/>
+    <col min="11" max="11" width="13.75" customWidth="1"/>
+    <col min="12" max="12" width="6.625" customWidth="1"/>
+    <col min="13" max="13" width="6.125" customWidth="1"/>
+    <col min="14" max="14" width="8.375" customWidth="1"/>
+    <col min="15" max="15" width="8.875" customWidth="1"/>
+    <col min="16" max="16" width="23.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="35.25" spans="1:11">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="1" customFormat="1" ht="35.25" spans="1:12">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="16"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="21"/>
     </row>
-    <row r="2" ht="19.5" spans="1:11">
-      <c r="A2" s="3" t="s">
+    <row r="2" ht="19.5" spans="1:12">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="L2" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" ht="15" spans="1:11">
-      <c r="A3" s="4">
+    <row r="3" ht="15" spans="1:12">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="E3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="F3" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="4">
+      <c r="G3" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="5">
         <v>18976848923</v>
       </c>
-      <c r="I3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="4">
+      <c r="J3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="5">
         <v>3205223928</v>
       </c>
-      <c r="K3" s="18" t="s">
+      <c r="L3" s="23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" ht="15" spans="1:12">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="5">
+        <v>13909934072</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="5">
+        <v>2157646685</v>
+      </c>
+      <c r="L4" s="23"/>
+    </row>
+    <row r="5" ht="15" spans="1:12">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>19</v>
       </c>
+      <c r="I5" s="5">
+        <v>18379028720</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="5">
+        <v>1029867213</v>
+      </c>
+      <c r="L5" s="23"/>
     </row>
-    <row r="4" ht="15" spans="1:11">
-      <c r="A4" s="4"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="15" t="s">
+    <row r="6" ht="15" spans="1:12">
+      <c r="A6" s="5">
+        <v>2</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="7">
+        <v>15522999550</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6" s="7">
+        <v>1753373622</v>
+      </c>
+      <c r="L6" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="4">
-        <v>13909934072</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="4">
-        <v>2157646685</v>
-      </c>
-      <c r="K4" s="18"/>
     </row>
-    <row r="5" ht="15" spans="1:11">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="4" t="s">
+    <row r="7" ht="15" spans="1:12">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="7">
+        <v>18779680827</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7" s="7">
+        <v>1976640167</v>
+      </c>
+      <c r="L7" s="24"/>
+    </row>
+    <row r="8" ht="15" spans="1:12">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="7">
+        <v>15914897361</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K8" s="7">
+        <v>2854908154</v>
+      </c>
+      <c r="L8" s="24"/>
+    </row>
+    <row r="9" ht="15" spans="1:12">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="4">
-        <v>18379028720</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J5" s="4">
-        <v>1029867213</v>
-      </c>
-      <c r="K5" s="18"/>
+      <c r="I9" s="7">
+        <v>17786936509</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="K9" s="7">
+        <v>3474583090</v>
+      </c>
+      <c r="L9" s="24"/>
     </row>
-    <row r="6" ht="15" spans="1:11">
-      <c r="A6" s="4">
-        <v>2</v>
-      </c>
-      <c r="B6" s="5" t="s">
+    <row r="10" ht="15" spans="1:12">
+      <c r="A10" s="8">
+        <v>3</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="5">
+        <v>17373701992</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K10" s="5">
+        <v>1469444875</v>
+      </c>
+      <c r="L10" s="25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" ht="15" spans="1:12">
+      <c r="A11" s="5"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="5">
+        <v>15164079921</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K11" s="5">
+        <v>2763142268</v>
+      </c>
+      <c r="L11" s="26"/>
+    </row>
+    <row r="12" ht="15" spans="1:12">
+      <c r="A12" s="5"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="5">
+        <v>15865767711</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K12" s="5">
+        <v>2856427359</v>
+      </c>
+      <c r="L12" s="26"/>
+    </row>
+    <row r="13" ht="15" spans="1:12">
+      <c r="A13" s="11">
+        <v>4</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="5">
+        <v>15055092005</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K13" s="5">
+        <v>861146418</v>
+      </c>
+      <c r="L13" s="23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" ht="15" spans="1:12">
+      <c r="A14" s="11"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" s="5">
+        <v>17889769490</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K14" s="5">
+        <v>2904835056</v>
+      </c>
+      <c r="L14" s="23"/>
+    </row>
+    <row r="15" ht="15" spans="1:12">
+      <c r="A15" s="11"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" s="7">
+        <v>13524744272</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K15" s="7">
+        <v>1281381039</v>
+      </c>
+      <c r="L15" s="23"/>
+    </row>
+    <row r="16" ht="15" spans="1:12">
+      <c r="A16" s="5">
+        <v>5</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="6">
-        <v>15522999550</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J6" s="6">
-        <v>1753373622</v>
-      </c>
-      <c r="K6" s="18" t="s">
+      <c r="F16" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="H16" s="5" t="s">
         <v>19</v>
       </c>
+      <c r="I16" s="5">
+        <v>18789781808</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K16" s="5">
+        <v>2215376397</v>
+      </c>
+      <c r="L16" s="23" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="7" ht="15" spans="1:11">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="6">
-        <v>18779680827</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J7" s="6">
-        <v>1976640167</v>
-      </c>
-      <c r="K7" s="19"/>
+    <row r="17" ht="15" spans="1:12">
+      <c r="A17" s="5"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" s="5">
+        <v>18389270531</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K17" s="5">
+        <v>1429823641</v>
+      </c>
+      <c r="L17" s="27"/>
     </row>
-    <row r="8" ht="15" spans="1:11">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="6">
-        <v>15914897361</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="J8" s="6">
-        <v>2854908154</v>
-      </c>
-      <c r="K8" s="19"/>
+    <row r="18" ht="15" spans="1:12">
+      <c r="A18" s="5">
+        <v>6</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18" s="5">
+        <v>18976534806</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="K18" s="5">
+        <v>2106777958</v>
+      </c>
+      <c r="L18" s="23" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="9" ht="15" spans="1:11">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" s="6">
-        <v>17786936509</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="J9" s="6">
-        <v>3474583090</v>
-      </c>
-      <c r="K9" s="19"/>
+    <row r="19" ht="15" spans="1:12">
+      <c r="A19" s="5"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="G19" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I19" s="5">
+        <v>15348851215</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="K19" s="5">
+        <v>3057543683</v>
+      </c>
+      <c r="L19" s="23"/>
     </row>
-    <row r="10" ht="15" spans="1:11">
-      <c r="A10" s="7">
-        <v>3</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" s="4">
-        <v>17373701992</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="J10" s="4">
-        <v>1469444875</v>
-      </c>
-      <c r="K10" s="20" t="s">
+    <row r="20" ht="15" spans="1:12">
+      <c r="A20" s="5">
+        <v>7</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="H20" s="5" t="s">
         <v>19</v>
       </c>
+      <c r="I20" s="5">
+        <v>17886749096</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="K20" s="5">
+        <v>2521736216</v>
+      </c>
+      <c r="L20" s="23" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="11" ht="15" spans="1:11">
-      <c r="A11" s="4"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="4">
-        <v>15164079921</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="J11" s="4">
-        <v>2763142268</v>
-      </c>
-      <c r="K11" s="21"/>
+    <row r="21" ht="15" spans="1:12">
+      <c r="A21" s="5"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I21" s="5">
+        <v>15208984680</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="K21" s="5">
+        <v>3456843176</v>
+      </c>
+      <c r="L21" s="24"/>
     </row>
-    <row r="12" ht="15" spans="1:11">
-      <c r="A12" s="4"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" s="4">
-        <v>15865767711</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="J12" s="4">
-        <v>2856427359</v>
-      </c>
-      <c r="K12" s="21"/>
+    <row r="22" ht="15" spans="1:12">
+      <c r="A22" s="5"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I22" s="5">
+        <v>15733033848</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="K22" s="5">
+        <v>3282076363</v>
+      </c>
+      <c r="L22" s="24"/>
     </row>
-    <row r="13" ht="15" spans="1:11">
-      <c r="A13" s="10">
-        <v>4</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" s="4">
-        <v>15055092005</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="J13" s="4">
-        <v>861146418</v>
-      </c>
-      <c r="K13" s="18" t="s">
+    <row r="23" ht="15" spans="1:12">
+      <c r="A23" s="12">
+        <v>8</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="G23" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="H23" s="5" t="s">
         <v>19</v>
       </c>
+      <c r="I23" s="5">
+        <v>18289774238</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="K23" s="5">
+        <v>2226546640</v>
+      </c>
+      <c r="L23" s="23" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="14" ht="15" spans="1:11">
-      <c r="A14" s="10"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" s="4">
-        <v>17889769490</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="J14" s="4">
-        <v>2904835056</v>
-      </c>
-      <c r="K14" s="18"/>
+    <row r="24" ht="15" spans="1:12">
+      <c r="A24" s="14"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="G24" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I24" s="5">
+        <v>19156492559</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="K24" s="5">
+        <v>1846665380</v>
+      </c>
+      <c r="L24" s="28"/>
     </row>
-    <row r="15" ht="15" spans="1:11">
-      <c r="A15" s="10"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H15" s="6">
-        <v>13524744272</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="J15" s="6">
-        <v>1281381039</v>
-      </c>
-      <c r="K15" s="18"/>
-    </row>
-    <row r="16" ht="15" spans="1:11">
-      <c r="A16" s="4">
-        <v>5</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H16" s="4">
-        <v>18789781808</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="J16" s="4">
-        <v>2215376397</v>
-      </c>
-      <c r="K16" s="18" t="s">
+    <row r="25" ht="15" spans="1:12">
+      <c r="A25" s="8"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="G25" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="H25" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" ht="15" spans="1:11">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H17" s="4">
-        <v>18389270531</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="J17" s="4">
-        <v>1429823641</v>
-      </c>
-      <c r="K17" s="22"/>
-    </row>
-    <row r="18" ht="15" spans="1:11">
-      <c r="A18" s="4">
-        <v>6</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H18" s="4">
-        <v>18976534806</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="J18" s="4">
-        <v>2106777958</v>
-      </c>
-      <c r="K18" s="18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" ht="15" spans="1:11">
-      <c r="A19" s="4"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H19" s="4">
-        <v>15348851215</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="J19" s="4">
-        <v>3057543683</v>
-      </c>
-      <c r="K19" s="18"/>
-    </row>
-    <row r="20" ht="15" spans="1:11">
-      <c r="A20" s="4">
-        <v>7</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H20" s="4">
-        <v>17886749096</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="J20" s="4">
-        <v>2521736216</v>
-      </c>
-      <c r="K20" s="18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" ht="15" spans="1:11">
-      <c r="A21" s="4"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H21" s="4">
-        <v>15208984680</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="J21" s="4">
-        <v>3456843176</v>
-      </c>
-      <c r="K21" s="19"/>
-    </row>
-    <row r="22" ht="15" spans="1:11">
-      <c r="A22" s="4"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H22" s="4">
-        <v>15733033848</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="J22" s="4">
-        <v>3282076363</v>
-      </c>
-      <c r="K22" s="19"/>
-    </row>
-    <row r="23" ht="15" spans="1:11">
-      <c r="A23" s="11">
-        <v>8</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H23" s="4">
-        <v>18289774238</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="J23" s="4">
-        <v>2226546640</v>
-      </c>
-      <c r="K23" s="18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" ht="15" spans="1:11">
-      <c r="A24" s="13"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H24" s="4">
-        <v>19156492559</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="J24" s="4">
-        <v>1846665380</v>
-      </c>
-      <c r="K24" s="23"/>
-    </row>
-    <row r="25" ht="15" spans="1:11">
-      <c r="A25" s="7"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H25" s="4">
+      <c r="I25" s="5">
         <v>13860649614</v>
       </c>
-      <c r="I25" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="J25" s="4">
+      <c r="J25" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="K25" s="5">
         <v>2498620795</v>
       </c>
-      <c r="K25" s="24"/>
+      <c r="L25" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A1:L1"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="A10:A12"/>
@@ -2438,25 +2590,25 @@
     <mergeCell ref="C23:C25"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="I6" r:id="rId1" display="15522999550@163.com" tooltip="mailto:15522999550@163.com"/>
-    <hyperlink ref="I7" r:id="rId2" display="1976640167@qq.com" tooltip="mailto:1976640167@qq.com"/>
-    <hyperlink ref="I13" r:id="rId3" display="861146418@qq.com"/>
-    <hyperlink ref="I14" r:id="rId4" display="2904835056@qq.com"/>
-    <hyperlink ref="I3" r:id="rId5" display="3205223928@qq.com"/>
-    <hyperlink ref="I10" r:id="rId6" display="1469444875@qq.com"/>
-    <hyperlink ref="I11" r:id="rId7" display="2763142268@qq.com"/>
-    <hyperlink ref="I12" r:id="rId8" display="2856427359@qq.com"/>
-    <hyperlink ref="I5" r:id="rId9" display="1029867213@qq.com"/>
-    <hyperlink ref="I8" r:id="rId10" display="2854908154@qq.com" tooltip="mailto:2854908154@qq.com"/>
-    <hyperlink ref="I15" r:id="rId11" display="1281381039@qq.com"/>
-    <hyperlink ref="I16" r:id="rId12" display="2215376397@qq.com"/>
-    <hyperlink ref="I17" r:id="rId13" display="1429823641@qq.com"/>
-    <hyperlink ref="I20" r:id="rId14" display="2521736216@qq.com"/>
-    <hyperlink ref="I22" r:id="rId15" display="3282076363@qq.com"/>
-    <hyperlink ref="I21" r:id="rId16" display="3456843176@qq.com"/>
-    <hyperlink ref="I23" r:id="rId17" display="2226546640@qq.com"/>
-    <hyperlink ref="I24" r:id="rId18" display="1846665380@qq.com"/>
-    <hyperlink ref="I25" r:id="rId19" display="2498620795@qq.com"/>
+    <hyperlink ref="J6" r:id="rId1" display="15522999550@163.com" tooltip="mailto:15522999550@163.com"/>
+    <hyperlink ref="J7" r:id="rId2" display="1976640167@qq.com" tooltip="mailto:1976640167@qq.com"/>
+    <hyperlink ref="J13" r:id="rId3" display="861146418@qq.com"/>
+    <hyperlink ref="J14" r:id="rId4" display="2904835056@qq.com"/>
+    <hyperlink ref="J3" r:id="rId5" display="3205223928@qq.com"/>
+    <hyperlink ref="J10" r:id="rId6" display="1469444875@qq.com"/>
+    <hyperlink ref="J11" r:id="rId7" display="2763142268@qq.com"/>
+    <hyperlink ref="J12" r:id="rId8" display="2856427359@qq.com"/>
+    <hyperlink ref="J5" r:id="rId9" display="1029867213@qq.com"/>
+    <hyperlink ref="J8" r:id="rId10" display="2854908154@qq.com" tooltip="mailto:2854908154@qq.com"/>
+    <hyperlink ref="J15" r:id="rId11" display="1281381039@qq.com"/>
+    <hyperlink ref="J16" r:id="rId12" display="2215376397@qq.com"/>
+    <hyperlink ref="J17" r:id="rId13" display="1429823641@qq.com"/>
+    <hyperlink ref="J20" r:id="rId14" display="2521736216@qq.com"/>
+    <hyperlink ref="J22" r:id="rId15" display="3282076363@qq.com"/>
+    <hyperlink ref="J21" r:id="rId16" display="3456843176@qq.com"/>
+    <hyperlink ref="J23" r:id="rId17" display="2226546640@qq.com"/>
+    <hyperlink ref="J24" r:id="rId18" display="1846665380@qq.com"/>
+    <hyperlink ref="J25" r:id="rId19" display="2498620795@qq.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
